--- a/My HDAC2/output/shapes_and_features/0.9_shapes_and_features.xlsx
+++ b/My HDAC2/output/shapes_and_features/0.9_shapes_and_features.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B414"/>
+  <dimension ref="A1:B407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B']</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing']</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv']</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS']</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH']</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v']</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6']</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z']</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing']</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO']</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC']</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1']</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing']</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C']</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC']</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d']</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring']</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se']</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO']</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m']</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m']</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z']</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d']</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i']</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c']</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv']</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z']</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8']</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B']</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z']</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i']</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv']</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4']</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i']</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN']</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4']</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m']</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p']</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv']</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8']</t>
         </is>
       </c>
     </row>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5']</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8']</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v']</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2']</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y']</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v']</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s']</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe']</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d']</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s']</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR']</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z']</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v']</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase']</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d']</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m']</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1']</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH']</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8']</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i']</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z']</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5']</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3']</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h']</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p']</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c']</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z']</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7']</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13']</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p']</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i']</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m']</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d']</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon']</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p']</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m']</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z']</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s']</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1']</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe']</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex']</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i']</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5']</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s']</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi']</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1']</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m']</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c']</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv']</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m']</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h']</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z']</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p']</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p']</t>
         </is>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4']</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC']</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z']</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23']</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC']</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B']</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB']</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c']</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS']</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m']</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x']</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m']</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are']</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d']</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD']</t>
         </is>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c']</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are']</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s']</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s']</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12']</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s']</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5']</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l']</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s']</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i']</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p']</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1']</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv']</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are']</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3']</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s']</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z']</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c']</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v']</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c']</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se']</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s']</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s']</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7']</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC']</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s']</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c']</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2']</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv']</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d']</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9']</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se']</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h']</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i']</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe']</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH']</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p']</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC']</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O']</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH']</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i']</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv']</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1']</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3']</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i']</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2']</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe']</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d']</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p']</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom']</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44']</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s']</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9']</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS']</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing']</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m']</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c']</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c']</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i']</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10']</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s']</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH']</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr']</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe']</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO']</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL']</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p']</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are']</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC']</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v']</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A']</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s']</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m']</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m']</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3']</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3', 'AATS5dv']</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3', 'AATS5dv', 'AATSC8s']</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3', 'AATS5dv', 'AATSC8s', 'n9FRing']</t>
         </is>
       </c>
     </row>
@@ -4501,77 +4501,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>407</v>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m']</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>408</v>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m']</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>409</v>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3']</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>410</v>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3', 'AATS5dv']</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="n">
-        <v>411</v>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3', 'AATS5dv', 'AATSC8s']</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="n">
-        <v>412</v>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3', 'AATS5dv', 'AATSC8s', 'n9FRing']</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="n">
-        <v>413</v>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'MINsI', 'SsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'n7ARing', 'n7AHRing', 'n7HRing', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'NsssB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'n4HRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3', 'AATS5dv', 'AATSC8s', 'n9FRing', 'MATS6dv']</t>
+          <t>['IC2', 'GATS8d', 'IC1', 'RPCG', 'BIC2', 'ETA_eta_L', 'NssCH2', 'MATS4d', 'AETA_dBeta', 'VSA_EState6', 'TIC1', 'nSpiro', 'AXp-5d', 'ATSC1dv', 'Xch-5d', 'VR3_A', 'SM1_Dzi', 'C1SP2', 'MDEN-22', 'JGI7', 'IC3', 'n6HRing', 'MINaaNH', 'SMR_VSA3', 'EState_VSA4', 'ATSC1d', 'GGI10', 'VSA_EState2', 'GATS1i', 'JGI10', 'nRot', 'MDEC-24', 'AETA_eta_L', 'MATS1s', 'SlogP_VSA5', 'SMR_VSA5', 'nBondsS', 'MID_N', 'ATSC4d', 'nHRing', 'MWC10', 'ETA_beta_s', 'GATS8dv', 'SMR_VSA7', 'SpMAD_Dzm', 'SRW03', 'nHBAcc', 'GATS7d', 'VSA_EState9', 'C4SP3', 'AATSC8d', 'Xch-7d', 'AATSC2v', 'naHRing', 'EState_VSA3', 'MATS5d', 'AXp-4d', 'GATS4dv', 'Xp-3dv', 'nHetero', 'MWC02', 'AATS2i', 'piPC9', 'fMF', 'SlogP_VSA2', 'AATS8se', 'CIC5', 'TSRW10', 'VR3_Dzp', 'ATSC1i', 'MPC9', 'PEOE_VSA6', 'MIC1', 'GGI5', 'CIC0', 'GATS8i', 'GATS7dv', 'MATS1dv', 'ATSC8d', 'GGI1', 'AATSC1d', 'SRW05', 'SMR_VSA4', 'AATSC4dv', 'TopoPSA', 'AATS0v', 'ATS8Z', 'RNCG', 'GATS4d', 'GATS7c', 'TopoPSA(NO)', 'AATS0p', 'GATS8m', 'MINssO', 'MINaaN', 'ATSC5d', 'GATS8c', 'BCUTc-1l', 'EState_VSA2', 'SM1_DzZ', 'SlogP_VSA11', 'GATS7se', 'ATSC7s', 'PEOE_VSA10', 'MATS7se', 'AATSC2p', 'MATS4are', 'MATS7s', 'VE2_A', 'AATSC6v', 'ATSC0c', 'n6aHRing', 'n6AHRing', 'ATSC8dv', 'PEOE_VSA3', 'ETA_dEpsilon_B', 'GATS8p', 'ATSC7se', 'MDEC-34', 'AATSC5m', 'MAXdO', 'AATSC1s', 'NsCH3', 'PEOE_VSA9', 'ETA_eta_B', 'AATSC6Z', 'Xpc-4dv', 'MAXssCH2', 'BCUTd-1h', 'PEOE_VSA2', 'MDEC-33', 'GATS1s', 'Mi', 'MAXdssC', 'MATS2d', 'AETA_beta_ns', 'ATS4s', 'ETA_dAlpha_A', 'AXp-7d', 'AATSC4are', 'MINsNH2', 'JGT10', 'n10FaHRing', 'CIC2', 'SMR_VSA9', 'AATS8i', 'VSA_EState4', 'GATS5dv', 'AATS8d', 'ATS0dv', 'MAXsCH3', 'GATS8pe', 'GATS1p', 'ATSC7dv', 'MATS5dv', 'SMR_VSA6', 'n5Ring', 'GGI4', 'ETA_dPsi_A', 'VSA_EState7', 'ATSC0pe', 'MDEC-13', 'WPath', 'AATSC7s', 'AMID_N', 'MATS2se', 'ATSC4dv', 'GGI3', 'n10FHRing', 'ATSC5p', 'SsssN', 'ATSC5v', 'PEOE_VSA11', 'PEOE_VSA12', 'SpMax_A', 'SaaN', 'GATS6d', 'GATS5se', 'AMID_h', 'GATS2se', 'Kier2', 'AATSC8v', 'GATS7i', 'GATS2c', 'MINdssC', 'GATS7s', 'AATS5s', 'piPC3', 'ATSC1s', 'ATSC5m', 'AATS0m', 'GATS6i', 'MDEC-23', 'MID_O', 'AATSC5pe', 'JGI5', 'MATS1p', 'AATS2s', 'AATS7se', 'MATS2m', 'AATS1s', 'n6aRing', 'GATS4are', 'fragCpx', 'BIC1', 'nARing', 'C1SP3', 'ATSC0i', 'n10FaRing', 'GATS7m', 'AATS1i', 'RotRatio', 'AATS3s', 'MATS7dv', 'AXp-6d', 'AATSC0p', 'nAcid', 'MAXsI', 'ETA_dPsi_B', 'nFaHRing', 'Xc-4dv', 'FilterItLogS', 'SdsCH', 'AATSC1v', 'JGI6', 'MATS5Z', 'nFHRing', 'NssO', 'NdssC', 'C2SP1', 'n10FRing', 'ETA_dEpsilon_C', 'SdssC', 'AATSC0d', 'n7Ring', 'MATS5se', 'SdO', 'AATSC4m', 'MATS6m', 'MATS7Z', 'MATS3d', 'AATS5i', 'MATS4c', 'AXp-0dv', 'AATS8Z', 'VSA_EState8', 'AETA_eta_B', 'ATSC7Z', 'AATS3i', 'AATS2dv', 'ETA_epsilon_4', 'AATS6i', 'NdsN', 'SlogP_VSA4', 'MATS8m', 'ATSC6p', 'GATS1dv', 'PEOE_VSA8', 'EState_VSA5', 'JGI8', 'AATS5v', 'JGI2', 'ETA_shape_y', 'ATSC6v', 'GATS8s', 'ATSC8pe', 'ATSC2d', 'AATSC3s', 'AETA_eta_BR', 'GATS4Z', 'AATSC5v', 'nBase', 'AXp-1d', 'ATSC6m', 'SlogP_VSA1', 'MAXssNH', 'SlogP_VSA8', 'ATSC4i', 'MATS4Z', 'VSA_EState5', 'BIC3', 'BCUTc-1h', 'MATS6p', 'MATS3c', 'ATS0Z', 'PEOE_VSA7', 'PEOE_VSA13', 'MATS3p', 'MATS2i', 'AATS1m', 'AATSC6d', 'nHBDon', 'ETA_shape_p', 'GATS1m', 'GATS6Z', 'ATS2s', 'PEOE_VSA1', 'MATS8pe', 'TopoShapeIndex', 'AATSC3i', 'ZMIC5', 'ATSC6s', 'NssssSi', 'SMR_VSA1', 'AATSC2m', 'GATS4c', 'ATSC2dv', 'ATSC4m', 'BCUTs-1h', 'AATS5Z', 'AATS6p', 'AATSC4p', 'BIC4', 'NaaaC', 'AATSC7Z', 'MDEN-23', 'MAXssssC', 'ETA_dAlpha_B', 'nB', 'GATS6c', 'NaaS', 'AATS4m', 'ETA_shape_x', 'ATSC8m', 'AATSC2are', 'Xc-6d', 'nBondsD', 'GATS3c', 'ATSC4are', 'MATS8s', 'MATS3s', 'MDEO-12', 'GATS5s', 'PEOE_VSA5', 'BCUTdv-1l', 'AATS4s', 'AATS7i', 'GATS2p', 'ZMIC1', 'ATSC5dv', 'AATSC3are', 'C3SP3', 'AATS6s', 'GATS5Z', 'GATS1c', 'AATSC0v', 'MATS1c', 'ATSC6se', 'ATSC0s', 'GATS3s', 'EState_VSA7', 'MAXaasC', 'AATS0s', 'AATSC0c', 'ZMIC2', 'AXp-1dv', 'GATS5d', 'JGI9', 'ATSC3se', 'BCUTi-1h', 'MATS7i', 'ATSC1pe', 'NsssCH', 'AATSC7p', 'StsC', 'AMID_O', 'NsSH', 'GATS4i', 'MATS3dv', 'C1SP1', 'JGI3', 'AATSC0i', 'MINssCH2', 'AATS5pe', 'MATS7d', 'ATSC7p', 'nAromAtom', 'MDEC-44', 'ATSC5s', 'EState_VSA9', 'NdS', 'n4AHRing', 'ATSC1m', 'ATSC8c', 'ATSC4c', 'ATSC5i', 'SlogP_VSA10', 'ATSC4s', 'MINsssCH', 'SsBr', 'MATS1pe', 'MINaaO', 'ETA_eta_FL', 'AATS8p', 'AATSC8are', 'MAXaaaC', 'ATSC8v', 'VE1_A', 'ATSC2s', 'ATSC3m', 'AATSC3m', 'VSA_EState3', 'AATS5dv', 'AATSC8s', 'n9FRing', 'MATS6dv']</t>
         </is>
       </c>
     </row>
